--- a/Diccionario base de datos/Base de DATOS.xlsx
+++ b/Diccionario base de datos/Base de DATOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Documents\GitHub\Master-Barber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Documents\GitHub\Master-Barber\Diccionario base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B367ADBF-49C0-4554-9CA3-680DA88FDC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52972022-CEFE-4ECD-AA02-9C27E852D628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t>Usuario cliente</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Constraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrador </t>
   </si>
 </sst>
 </file>
@@ -231,6 +234,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -239,9 +245,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,7 +563,7 @@
   <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,14 +575,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -690,17 +693,17 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">

--- a/Diccionario base de datos/Base de DATOS.xlsx
+++ b/Diccionario base de datos/Base de DATOS.xlsx
@@ -8,12 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Documents\GitHub\Master-Barber\Diccionario base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52972022-CEFE-4ECD-AA02-9C27E852D628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6622A42D-3101-4FBF-8A85-BD51D3EB1FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cliente" sheetId="1" r:id="rId1"/>
+    <sheet name="Administrador " sheetId="3" r:id="rId2"/>
+    <sheet name="Barbero" sheetId="4" r:id="rId3"/>
+    <sheet name="ReservaTurno" sheetId="5" r:id="rId4"/>
+    <sheet name="Producto" sheetId="7" r:id="rId5"/>
+    <sheet name="Compra" sheetId="6" r:id="rId6"/>
+    <sheet name="Servicio " sheetId="9" r:id="rId7"/>
+    <sheet name="CarritoCompras" sheetId="10" r:id="rId8"/>
+    <sheet name="Factura" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
-  <si>
-    <t>Usuario cliente</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="97">
   <si>
     <t>column name</t>
   </si>
@@ -48,46 +53,277 @@
     <t>comment</t>
   </si>
   <si>
-    <t>ID_usuario</t>
-  </si>
-  <si>
     <t>INT</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>ID único del usuario</t>
-  </si>
-  <si>
-    <t>Nombre_Usuario</t>
-  </si>
-  <si>
     <t>TEXT</t>
   </si>
   <si>
-    <t>Nombre del usuario</t>
-  </si>
-  <si>
-    <t>Correo</t>
-  </si>
-  <si>
     <t>VARCHAR</t>
   </si>
   <si>
-    <t>Correo del usuario</t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
     <t>Contraseña</t>
   </si>
   <si>
-    <t>Constraseña</t>
-  </si>
-  <si>
     <t xml:space="preserve">Administrador </t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Nit</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID único del administrador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre del administrador </t>
+  </si>
+  <si>
+    <t>Correo del administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numero de identificacion del adminstrador </t>
+  </si>
+  <si>
+    <t>Numero de telefono del administrasdor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contraseña de ingreso del administrador </t>
+  </si>
+  <si>
+    <t>Numero de identificacion del cliente</t>
+  </si>
+  <si>
+    <t>ID único del cliente</t>
+  </si>
+  <si>
+    <t>Nombre del cliente</t>
+  </si>
+  <si>
+    <t>Correo del cliente</t>
+  </si>
+  <si>
+    <t>Numero de telefono del cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contraseña de ingreso del cliente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbero </t>
+  </si>
+  <si>
+    <t>Nombre_usuario</t>
+  </si>
+  <si>
+    <t>ID_cliente</t>
+  </si>
+  <si>
+    <t>ID_admin</t>
+  </si>
+  <si>
+    <t>ID_barbero</t>
+  </si>
+  <si>
+    <t>Horario</t>
+  </si>
+  <si>
+    <t>DataTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID único del barbero </t>
+  </si>
+  <si>
+    <t>Nombre del barbero</t>
+  </si>
+  <si>
+    <t>Correo del barbero</t>
+  </si>
+  <si>
+    <t>Numero de identificacion del barbero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horario establecido por el barbero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numero de telefono del barbero </t>
+  </si>
+  <si>
+    <t>Reserva de turno</t>
+  </si>
+  <si>
+    <t>ID_ReservaTurno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo </t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Fecha_Hora</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_administrador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_barbero </t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>ID único de la reserva de turno</t>
+  </si>
+  <si>
+    <t>Fecha y hora para la reseerva del turno</t>
+  </si>
+  <si>
+    <t>Tipo de corte para la reserva del turno</t>
+  </si>
+  <si>
+    <t>Precio de la reserva de turno</t>
+  </si>
+  <si>
+    <t>ID del administrador para la reserva de turno</t>
+  </si>
+  <si>
+    <t>ID unico del barbero para la reserva de turno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID unico del cliente para la reserva de turno </t>
+  </si>
+  <si>
+    <t>Compra</t>
+  </si>
+  <si>
+    <t>ID_compra</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>Precio_Total</t>
+  </si>
+  <si>
+    <t>Tipo_Pago</t>
+  </si>
+  <si>
+    <t>ID_producto</t>
+  </si>
+  <si>
+    <t>ID único de la compra</t>
+  </si>
+  <si>
+    <t>Detalle de la compra</t>
+  </si>
+  <si>
+    <t>Precio total de la compra</t>
+  </si>
+  <si>
+    <t>Tipos de pago para la compra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID unico del del producto de la compra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID unico del cliente para la compra </t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_servicio </t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_Barber </t>
+  </si>
+  <si>
+    <t>ID único del servicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de servicio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripcion del servicio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio del servicio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID unico del barbero que presta el servicio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID unico del cliente que adquiere el servcio </t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripcion </t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>ID_CarritoCompras</t>
+  </si>
+  <si>
+    <t>ID unico del carrito de compras</t>
+  </si>
+  <si>
+    <t>ID unico del producto del carrito de compras</t>
+  </si>
+  <si>
+    <t>ID unico de la Compra en el carrito de compras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrito de compras </t>
+  </si>
+  <si>
+    <t>Factura</t>
+  </si>
+  <si>
+    <t>ID_factura</t>
+  </si>
+  <si>
+    <t>ID único de la factura</t>
+  </si>
+  <si>
+    <t>Fecha de la cuando se hizo la factura</t>
+  </si>
+  <si>
+    <t>ID unico de la compra en la factura</t>
+  </si>
+  <si>
+    <t>Descripcion de la factura</t>
+  </si>
+  <si>
+    <t>ID unico de el administrador en la factura</t>
   </si>
 </sst>
 </file>
@@ -103,7 +339,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -123,7 +359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -198,27 +434,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -230,21 +460,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,254 +775,1287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9420D3FF-ED13-41A9-8DE4-2B36600C40CA}">
-  <dimension ref="B1:G16"/>
+  <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="4" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>19</v>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE346BF-AD48-4DE0-BEB7-DC25D908EC76}">
+  <dimension ref="B1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="53.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC90BB7-6FDD-4EE2-8E59-B7506C43859A}">
+  <dimension ref="B1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF61CE-D33A-4256-9734-775E9712A8C7}">
+  <dimension ref="B1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="64.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C30701A-A241-497A-87AC-90B96D43611C}">
+  <dimension ref="B1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="63.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56231A21-352E-4BA6-9095-2CC725DDC383}">
+  <dimension ref="B1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="56.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FEC9F6-127D-410C-8876-F4857825EC68}">
+  <dimension ref="B1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="7" max="7" width="55.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4307875-C86E-46A0-ACA3-04DC98865736}">
+  <dimension ref="B1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="59.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8AB78C-B123-4DE6-A617-CB63C3F105B6}">
+  <dimension ref="B1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="61" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Diccionario base de datos/Base de DATOS.xlsx
+++ b/Diccionario base de datos/Base de DATOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Documents\GitHub\Master-Barber\Diccionario base de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\Diccionario base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6622A42D-3101-4FBF-8A85-BD51D3EB1FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99FEFDA-96BA-42AF-9902-8605FF43C514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="6" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cliente" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Barbero" sheetId="4" r:id="rId3"/>
     <sheet name="ReservaTurno" sheetId="5" r:id="rId4"/>
     <sheet name="Producto" sheetId="7" r:id="rId5"/>
-    <sheet name="Compra" sheetId="6" r:id="rId6"/>
-    <sheet name="Servicio " sheetId="9" r:id="rId7"/>
+    <sheet name="Servicio " sheetId="9" r:id="rId6"/>
+    <sheet name="Compra" sheetId="6" r:id="rId7"/>
     <sheet name="CarritoCompras" sheetId="10" r:id="rId8"/>
     <sheet name="Factura" sheetId="11" r:id="rId9"/>
   </sheets>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="98">
   <si>
     <t>column name</t>
   </si>
@@ -245,9 +245,6 @@
     <t>Producto</t>
   </si>
   <si>
-    <t xml:space="preserve">NUM </t>
-  </si>
-  <si>
     <t xml:space="preserve">Servicio </t>
   </si>
   <si>
@@ -260,9 +257,6 @@
     <t xml:space="preserve">Precio </t>
   </si>
   <si>
-    <t xml:space="preserve">ID_Barber </t>
-  </si>
-  <si>
     <t>ID único del servicio</t>
   </si>
   <si>
@@ -324,6 +318,15 @@
   </si>
   <si>
     <t>ID unico de el administrador en la factura</t>
+  </si>
+  <si>
+    <t>ID unico del cliente en el carrito de compras</t>
+  </si>
+  <si>
+    <t>TipoCorte</t>
+  </si>
+  <si>
+    <t>TimeStamp</t>
   </si>
 </sst>
 </file>
@@ -440,15 +443,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -460,6 +454,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,128 +793,128 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -929,7 +932,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,128 +944,128 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1079,7 +1082,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,128 +1094,128 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1229,7 +1232,7 @@
   <dimension ref="B1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,144 +1244,144 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="B5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="C6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1407,112 +1410,112 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1525,11 +1528,161 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FEC9F6-127D-410C-8876-F4857825EC68}">
+  <dimension ref="B1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="7" max="7" width="55.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56231A21-352E-4BA6-9095-2CC725DDC383}">
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,279 +1694,129 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FEC9F6-127D-410C-8876-F4857825EC68}">
-  <dimension ref="B1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="7" max="7" width="55.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1826,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4307875-C86E-46A0-ACA3-04DC98865736}">
-  <dimension ref="B1:G6"/>
+  <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,81 +1844,97 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+    </row>
+    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1943,113 +1962,113 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+    </row>
+    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+    </row>
+    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="7" t="s">
+    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Diccionario base de datos/Base de DATOS.xlsx
+++ b/Diccionario base de datos/Base de DATOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\Diccionario base de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Documents\GitHub\Master-Barber\Diccionario base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99FEFDA-96BA-42AF-9902-8605FF43C514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5398ED41-C55A-4AD7-A313-2DCF42CAC85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="6" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cliente" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Compra" sheetId="6" r:id="rId7"/>
     <sheet name="CarritoCompras" sheetId="10" r:id="rId8"/>
     <sheet name="Factura" sheetId="11" r:id="rId9"/>
+    <sheet name="Tipo corte " sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="104">
   <si>
     <t>column name</t>
   </si>
@@ -176,9 +177,6 @@
     <t>Precio</t>
   </si>
   <si>
-    <t xml:space="preserve">ID_administrador </t>
-  </si>
-  <si>
     <t xml:space="preserve">ID_barbero </t>
   </si>
   <si>
@@ -194,12 +192,6 @@
     <t>Tipo de corte para la reserva del turno</t>
   </si>
   <si>
-    <t>Precio de la reserva de turno</t>
-  </si>
-  <si>
-    <t>ID del administrador para la reserva de turno</t>
-  </si>
-  <si>
     <t>ID unico del barbero para la reserva de turno</t>
   </si>
   <si>
@@ -323,10 +315,37 @@
     <t>ID unico del cliente en el carrito de compras</t>
   </si>
   <si>
-    <t>TipoCorte</t>
-  </si>
-  <si>
     <t>TimeStamp</t>
+  </si>
+  <si>
+    <t>ID_TipoCorte</t>
+  </si>
+  <si>
+    <t>Aceptar_Turno</t>
+  </si>
+  <si>
+    <t>Cancelar_Turno</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>Se acepta el turno</t>
+  </si>
+  <si>
+    <t>Se cancela el turno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo Corte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID unico del tipo de corte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre del corte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio del corte </t>
   </si>
 </sst>
 </file>
@@ -781,7 +800,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +849,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -847,7 +866,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -863,7 +882,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -879,7 +898,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -895,7 +914,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -911,7 +930,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -924,6 +943,108 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D618474F-CD69-41C9-9ED3-63E77D8623A7}">
+  <dimension ref="B2:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -981,7 +1102,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -998,7 +1119,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -1014,7 +1135,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -1030,7 +1151,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -1046,7 +1167,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -1062,7 +1183,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -1081,7 +1202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC90BB7-6FDD-4EE2-8E59-B7506C43859A}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1131,7 +1252,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1148,7 +1269,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -1164,7 +1285,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -1180,7 +1301,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -1196,7 +1317,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -1212,7 +1333,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -1232,7 +1353,7 @@
   <dimension ref="B1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,28 +1402,28 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="G5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1310,52 +1431,52 @@
         <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="E8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1363,13 +1484,13 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
@@ -1379,10 +1500,10 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1411,7 +1532,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1441,71 +1562,71 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -1516,7 +1637,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1545,7 +1666,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1575,18 +1696,18 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1598,43 +1719,43 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1647,10 +1768,10 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1663,10 +1784,10 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1681,7 +1802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56231A21-352E-4BA6-9095-2CC725DDC383}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1695,7 +1816,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1725,71 +1846,71 @@
     </row>
     <row r="4" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1797,10 +1918,10 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1813,10 +1934,10 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +1966,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1875,23 +1996,23 @@
     </row>
     <row r="4" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -1899,10 +2020,10 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1915,15 +2036,15 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -1931,10 +2052,10 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1950,7 +2071,7 @@
   <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="B2" sqref="B2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,7 +2084,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1993,18 +2114,18 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2016,16 +2137,16 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -2033,26 +2154,26 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2065,10 +2186,10 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Diccionario base de datos/Base de DATOS.xlsx
+++ b/Diccionario base de datos/Base de DATOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Documents\GitHub\Master-Barber\Diccionario base de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\Diccionario base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5398ED41-C55A-4AD7-A313-2DCF42CAC85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E00A33-6A13-40AB-85D4-FC814A2CA8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="6" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cliente" sheetId="1" r:id="rId1"/>
@@ -800,7 +800,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC90BB7-6FDD-4EE2-8E59-B7506C43859A}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1353,7 @@
   <dimension ref="B1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,7 +1802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56231A21-352E-4BA6-9095-2CC725DDC383}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/Diccionario base de datos/Base de DATOS.xlsx
+++ b/Diccionario base de datos/Base de DATOS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\Diccionario base de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\Modelo Entidad Relacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E00A33-6A13-40AB-85D4-FC814A2CA8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B906AA7-8791-4754-8052-6E86C64394E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="6" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="9" activeTab="10" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cliente" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,16 @@
     <sheet name="Barbero" sheetId="4" r:id="rId3"/>
     <sheet name="ReservaTurno" sheetId="5" r:id="rId4"/>
     <sheet name="Producto" sheetId="7" r:id="rId5"/>
-    <sheet name="Servicio " sheetId="9" r:id="rId6"/>
-    <sheet name="Compra" sheetId="6" r:id="rId7"/>
-    <sheet name="CarritoCompras" sheetId="10" r:id="rId8"/>
-    <sheet name="Factura" sheetId="11" r:id="rId9"/>
-    <sheet name="Tipo corte " sheetId="13" r:id="rId10"/>
+    <sheet name="Tipo producto" sheetId="20" r:id="rId6"/>
+    <sheet name="Servicio " sheetId="9" r:id="rId7"/>
+    <sheet name="Tipo servicio " sheetId="13" r:id="rId8"/>
+    <sheet name="Compra" sheetId="6" r:id="rId9"/>
+    <sheet name="CarritoCompras" sheetId="10" r:id="rId10"/>
+    <sheet name="Factura" sheetId="11" r:id="rId11"/>
+    <sheet name="Recordatorio" sheetId="16" r:id="rId12"/>
+    <sheet name="Horario " sheetId="15" r:id="rId13"/>
+    <sheet name="Dia" sheetId="18" r:id="rId14"/>
+    <sheet name="Hora " sheetId="19" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="123">
   <si>
     <t>column name</t>
   </si>
@@ -57,9 +62,6 @@
     <t>INT</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>TEXT</t>
   </si>
   <si>
@@ -135,9 +137,6 @@
     <t>ID_barbero</t>
   </si>
   <si>
-    <t>Horario</t>
-  </si>
-  <si>
     <t>DataTime</t>
   </si>
   <si>
@@ -171,9 +170,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>Fecha_Hora</t>
-  </si>
-  <si>
     <t>Precio</t>
   </si>
   <si>
@@ -189,9 +185,6 @@
     <t>Fecha y hora para la reseerva del turno</t>
   </si>
   <si>
-    <t>Tipo de corte para la reserva del turno</t>
-  </si>
-  <si>
     <t>ID unico del barbero para la reserva de turno</t>
   </si>
   <si>
@@ -204,9 +197,6 @@
     <t>ID_compra</t>
   </si>
   <si>
-    <t>Detalle</t>
-  </si>
-  <si>
     <t>Precio_Total</t>
   </si>
   <si>
@@ -219,9 +209,6 @@
     <t>ID único de la compra</t>
   </si>
   <si>
-    <t>Detalle de la compra</t>
-  </si>
-  <si>
     <t>Precio total de la compra</t>
   </si>
   <si>
@@ -252,15 +239,9 @@
     <t>ID único del servicio</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo de servicio </t>
-  </si>
-  <si>
     <t xml:space="preserve">Descripcion del servicio </t>
   </si>
   <si>
-    <t xml:space="preserve">Precio del servicio </t>
-  </si>
-  <si>
     <t xml:space="preserve">ID unico del barbero que presta el servicio </t>
   </si>
   <si>
@@ -300,27 +281,15 @@
     <t>ID único de la factura</t>
   </si>
   <si>
-    <t>Fecha de la cuando se hizo la factura</t>
-  </si>
-  <si>
     <t>ID unico de la compra en la factura</t>
   </si>
   <si>
-    <t>Descripcion de la factura</t>
-  </si>
-  <si>
     <t>ID unico de el administrador en la factura</t>
   </si>
   <si>
     <t>ID unico del cliente en el carrito de compras</t>
   </si>
   <si>
-    <t>TimeStamp</t>
-  </si>
-  <si>
-    <t>ID_TipoCorte</t>
-  </si>
-  <si>
     <t>Aceptar_Turno</t>
   </si>
   <si>
@@ -336,16 +305,109 @@
     <t>Se cancela el turno</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo Corte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID unico del tipo de corte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre del corte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precio del corte </t>
+    <t xml:space="preserve">Tipo Servicio </t>
+  </si>
+  <si>
+    <t>ID_TipoServicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID unico del tipo de servicio </t>
+  </si>
+  <si>
+    <t>Nombre del servicio</t>
+  </si>
+  <si>
+    <t>Precio del servicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_TipoServicio </t>
+  </si>
+  <si>
+    <t>ID unico del tipo de servico para la reserva del turno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_Horario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_Dia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_Hora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID unico del horario  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID Unico del dia </t>
+  </si>
+  <si>
+    <t>ID unico de la hora</t>
+  </si>
+  <si>
+    <t>Descripcion de la compra</t>
+  </si>
+  <si>
+    <t>Recordatorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_Recordatorio </t>
+  </si>
+  <si>
+    <t>ID_Horario</t>
+  </si>
+  <si>
+    <t>ID unico del recordatorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID unico de la reserva </t>
+  </si>
+  <si>
+    <t>Fecha de cuando se hizo la factura</t>
+  </si>
+  <si>
+    <t>ID único del producto</t>
+  </si>
+  <si>
+    <t>nombre del producto</t>
+  </si>
+  <si>
+    <t>descripcion del producto</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID unico del dia  </t>
+  </si>
+  <si>
+    <t>Nombre comun del dia</t>
+  </si>
+  <si>
+    <t>Nombre_Dia</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>ID_Hora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hora </t>
+  </si>
+  <si>
+    <t>ID_TipoProducto</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>ID único del tipo de producto</t>
+  </si>
+  <si>
+    <t>Categoria del producto</t>
   </si>
 </sst>
 </file>
@@ -367,7 +429,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +439,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -482,6 +556,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,7 +880,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +893,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -842,99 +922,99 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>30</v>
+      <c r="B4" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -947,102 +1027,612 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D618474F-CD69-41C9-9ED3-63E77D8623A7}">
-  <dimension ref="B2:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4307875-C86E-46A0-ACA3-04DC98865736}">
+  <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8AB78C-B123-4DE6-A617-CB63C3F105B6}">
+  <dimension ref="B1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="61" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>77</v>
+      <c r="B6" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G7" s="4" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE36B24-2715-400C-9E85-4730A4D9CC14}">
+  <dimension ref="B1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9757E9D-4934-4EDF-9513-D95364CE2861}">
+  <dimension ref="B1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2B20A9-3EC0-4F50-A4E2-EF2C98AE2925}">
+  <dimension ref="B1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86C3989-93D5-4538-BEA2-A974F993FF95}">
+  <dimension ref="B1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1053,7 +1643,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1656,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1095,99 +1685,99 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>31</v>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1793,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1806,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1245,99 +1835,99 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>32</v>
+      <c r="B4" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>33</v>
+      <c r="B8" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1943,7 @@
   <dimension ref="B1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1956,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1395,115 +1985,115 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>42</v>
+      <c r="B4" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>94</v>
+      <c r="B5" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>45</v>
+      <c r="B6" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>30</v>
+      <c r="B9" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+      <c r="B10" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1516,10 +2106,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C30701A-A241-497A-87AC-90B96D43611C}">
-  <dimension ref="B1:G8"/>
+  <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,7 +2122,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1561,83 +2151,97 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>59</v>
+      <c r="B4" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>70</v>
+      <c r="B8" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>64</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1649,24 +2253,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FEC9F6-127D-410C-8876-F4857825EC68}">
-  <dimension ref="B1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2D4616-9B7D-48B5-BA5E-E7ABB003E7B0}">
+  <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="7" max="7" width="55.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1674,7 +2278,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1694,100 +2298,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>68</v>
+    <row r="4" spans="2:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G5" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1799,11 +2339,247 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FEC9F6-127D-410C-8876-F4857825EC68}">
+  <dimension ref="B1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="7" max="7" width="55.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D618474F-CD69-41C9-9ED3-63E77D8623A7}">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56231A21-352E-4BA6-9095-2CC725DDC383}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,7 +2592,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1845,99 +2621,99 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>55</v>
+      <c r="B4" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>59</v>
+      <c r="B8" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>30</v>
+      <c r="B9" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1948,254 +2724,284 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4307875-C86E-46A0-ACA3-04DC98865736}">
-  <dimension ref="B1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="59.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
+    <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <xsd:import namespace="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4654803a-f478-4af1-92a3-defc78799f17" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="12" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="14" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="20" nillable="true" ma:displayName="Hash de la sugerencia para compartir" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8AB78C-B123-4DE6-A617-CB63C3F105B6}">
-  <dimension ref="B1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="61" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1043450-795A-4F67-81EF-EC255C8E7E32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Diccionario base de datos/Base de DATOS.xlsx
+++ b/Diccionario base de datos/Base de DATOS.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\Modelo Entidad Relacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Master-Barber\Diccionario base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B906AA7-8791-4754-8052-6E86C64394E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204D310B-D8F7-4063-901C-BDA19947D6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="9" activeTab="10" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cliente" sheetId="1" r:id="rId1"/>
     <sheet name="Administrador " sheetId="3" r:id="rId2"/>
     <sheet name="Barbero" sheetId="4" r:id="rId3"/>
     <sheet name="ReservaTurno" sheetId="5" r:id="rId4"/>
-    <sheet name="Producto" sheetId="7" r:id="rId5"/>
-    <sheet name="Tipo producto" sheetId="20" r:id="rId6"/>
+    <sheet name=" Categoria producto" sheetId="20" r:id="rId5"/>
+    <sheet name="Producto" sheetId="7" r:id="rId6"/>
     <sheet name="Servicio " sheetId="9" r:id="rId7"/>
     <sheet name="Tipo servicio " sheetId="13" r:id="rId8"/>
     <sheet name="Compra" sheetId="6" r:id="rId9"/>
@@ -26,8 +26,6 @@
     <sheet name="Factura" sheetId="11" r:id="rId11"/>
     <sheet name="Recordatorio" sheetId="16" r:id="rId12"/>
     <sheet name="Horario " sheetId="15" r:id="rId13"/>
-    <sheet name="Dia" sheetId="18" r:id="rId14"/>
-    <sheet name="Hora " sheetId="19" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="119">
   <si>
     <t>column name</t>
   </si>
@@ -164,9 +162,6 @@
     <t>ID_ReservaTurno</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo </t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -332,18 +327,9 @@
     <t xml:space="preserve">ID_Horario </t>
   </si>
   <si>
-    <t xml:space="preserve">ID_Dia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID_Hora </t>
-  </si>
-  <si>
     <t xml:space="preserve">ID unico del horario  </t>
   </si>
   <si>
-    <t xml:space="preserve">ID Unico del dia </t>
-  </si>
-  <si>
     <t>ID unico de la hora</t>
   </si>
   <si>
@@ -377,30 +363,6 @@
     <t>descripcion del producto</t>
   </si>
   <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID unico del dia  </t>
-  </si>
-  <si>
-    <t>Nombre comun del dia</t>
-  </si>
-  <si>
-    <t>Nombre_Dia</t>
-  </si>
-  <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>ID_Hora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hora </t>
-  </si>
-  <si>
-    <t>ID_TipoProducto</t>
-  </si>
-  <si>
     <t>Categoria</t>
   </si>
   <si>
@@ -408,6 +370,30 @@
   </si>
   <si>
     <t>Categoria del producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_Cliente </t>
+  </si>
+  <si>
+    <t>ID unico del cliente</t>
+  </si>
+  <si>
+    <t>Fecha_Hora</t>
+  </si>
+  <si>
+    <t>Fecha y hora del horario</t>
+  </si>
+  <si>
+    <t>ID_Producto</t>
+  </si>
+  <si>
+    <t>ID unico del producto</t>
+  </si>
+  <si>
+    <t>Categoria Producto</t>
+  </si>
+  <si>
+    <t>ID_Categoria_Producto</t>
   </si>
 </sst>
 </file>
@@ -429,7 +415,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +437,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -548,6 +540,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -557,10 +555,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -892,14 +887,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -922,14 +917,14 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -946,7 +941,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -962,7 +957,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -978,7 +973,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -994,7 +989,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -1010,7 +1005,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -1043,14 +1038,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1073,24 +1068,24 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>72</v>
+      <c r="B4" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>54</v>
+      <c r="B5" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1098,14 +1093,14 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1114,15 +1109,15 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>51</v>
+      <c r="B7" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1130,10 +1125,10 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8AB78C-B123-4DE6-A617-CB63C3F105B6}">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1161,14 +1156,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1191,40 +1186,40 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>78</v>
+      <c r="B4" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>51</v>
+      <c r="B6" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1232,14 +1227,14 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1248,10 +1243,10 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1279,14 +1274,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1309,23 +1304,23 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>104</v>
+      <c r="B4" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1334,15 +1329,15 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>105</v>
+      <c r="B6" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1350,10 +1345,10 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1369,7 +1364,7 @@
   <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,14 +1376,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1411,40 +1406,40 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>96</v>
+      <c r="B4" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>97</v>
+      <c r="B5" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>98</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1452,182 +1447,10 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2B20A9-3EC0-4F50-A4E2-EF2C98AE2925}">
-  <dimension ref="B1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86C3989-93D5-4538-BEA2-A974F993FF95}">
-  <dimension ref="B1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1643,7 +1466,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,14 +1478,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1685,14 +1508,14 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1709,7 +1532,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -1725,7 +1548,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -1741,7 +1564,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -1757,7 +1580,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -1773,7 +1596,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -1793,7 +1616,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,14 +1628,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1835,14 +1658,14 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1859,7 +1682,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -1875,7 +1698,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -1891,7 +1714,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -1899,15 +1722,15 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>105</v>
+      <c r="B8" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -1923,7 +1746,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -1955,14 +1778,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1985,24 +1808,24 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>93</v>
+      <c r="B5" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -2010,15 +1833,15 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>105</v>
+      <c r="B6" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -2026,46 +1849,46 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2074,15 +1897,15 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
-        <v>44</v>
+      <c r="B10" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -2090,10 +1913,10 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2105,32 +1928,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C30701A-A241-497A-87AC-90B96D43611C}">
-  <dimension ref="B1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2D4616-9B7D-48B5-BA5E-E7ABB003E7B0}">
+  <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="63.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2150,15 +1973,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>54</v>
+    <row r="4" spans="2:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -2166,82 +1989,36 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>70</v>
+    <row r="6" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2253,32 +2030,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2D4616-9B7D-48B5-BA5E-E7ABB003E7B0}">
-  <dimension ref="B1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C30701A-A241-497A-87AC-90B96D43611C}">
+  <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2298,36 +2075,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>119</v>
+    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>122</v>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2355,14 +2180,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -2385,24 +2210,24 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>62</v>
+      <c r="B4" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>89</v>
+      <c r="B5" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -2410,14 +2235,14 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2426,14 +2251,14 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2442,10 +2267,10 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2461,7 +2286,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2473,14 +2298,14 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -2503,67 +2328,67 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
-        <v>89</v>
+      <c r="B5" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2591,14 +2416,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -2621,72 +2446,72 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>51</v>
+      <c r="B4" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>54</v>
+      <c r="B8" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -2694,14 +2519,14 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2710,10 +2535,10 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2725,6 +2550,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -2945,15 +2779,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2963,6 +2788,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1043450-795A-4F67-81EF-EC255C8E7E32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2977,14 +2810,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Diccionario base de datos/Base de DATOS.xlsx
+++ b/Diccionario base de datos/Base de DATOS.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Master-Barber\Diccionario base de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\Diccionario base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204D310B-D8F7-4063-901C-BDA19947D6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6C8BB5-8835-4912-9487-BBCB29CA800B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="6" activeTab="12" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cliente" sheetId="1" r:id="rId1"/>
     <sheet name="Administrador " sheetId="3" r:id="rId2"/>
     <sheet name="Barbero" sheetId="4" r:id="rId3"/>
     <sheet name="ReservaTurno" sheetId="5" r:id="rId4"/>
-    <sheet name=" Categoria producto" sheetId="20" r:id="rId5"/>
-    <sheet name="Producto" sheetId="7" r:id="rId6"/>
+    <sheet name="Producto" sheetId="7" r:id="rId5"/>
+    <sheet name=" Categoria producto" sheetId="20" r:id="rId6"/>
     <sheet name="Servicio " sheetId="9" r:id="rId7"/>
     <sheet name="Tipo servicio " sheetId="13" r:id="rId8"/>
     <sheet name="Compra" sheetId="6" r:id="rId9"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="119">
   <si>
     <t>column name</t>
   </si>
@@ -387,13 +387,13 @@
     <t>ID_Producto</t>
   </si>
   <si>
-    <t>ID unico del producto</t>
-  </si>
-  <si>
     <t>Categoria Producto</t>
   </si>
   <si>
     <t>ID_Categoria_Producto</t>
+  </si>
+  <si>
+    <t>ID unico de la categoria del producto</t>
   </si>
 </sst>
 </file>
@@ -546,6 +546,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -554,9 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -875,7 +875,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,14 +887,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1026,26 +1026,26 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1085,7 +1085,7 @@
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1156,14 +1156,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1274,14 +1274,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1363,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9757E9D-4934-4EDF-9513-D95364CE2861}">
   <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1376,14 +1376,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1422,7 +1422,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1478,14 +1478,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1628,14 +1628,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1778,14 +1778,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1928,11 +1928,159 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2D4616-9B7D-48B5-BA5E-E7ABB003E7B0}">
-  <dimension ref="B1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C30701A-A241-497A-87AC-90B96D43611C}">
+  <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="63.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2D4616-9B7D-48B5-BA5E-E7ABB003E7B0}">
+  <dimension ref="B1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,14 +2092,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1975,7 +2123,7 @@
     </row>
     <row r="4" spans="2:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -2003,156 +2151,6 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C30701A-A241-497A-87AC-90B96D43611C}">
-  <dimension ref="B1:G8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="63.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2180,14 +2178,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -2298,14 +2296,14 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -2404,26 +2402,26 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="7" max="7" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -2511,7 +2509,7 @@
     </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -2522,7 +2520,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2550,12 +2548,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2780,17 +2777,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2815,18 +2822,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Diccionario base de datos/Base de DATOS.xlsx
+++ b/Diccionario base de datos/Base de DATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\Diccionario base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6C8BB5-8835-4912-9487-BBCB29CA800B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10168E74-D482-4AF3-805E-6E6BC0E4E278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="6" activeTab="12" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="120">
   <si>
     <t>column name</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>ID unico de la categoria del producto</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1367,7 @@
   <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,7 +1429,7 @@
         <v>113</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -2548,11 +2551,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2777,27 +2781,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2822,9 +2816,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Diccionario base de datos/Base de DATOS.xlsx
+++ b/Diccionario base de datos/Base de DATOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\Diccionario base de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIDEL-SMOKE\Documents\GitHub\Master-Barber\Diccionario base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10168E74-D482-4AF3-805E-6E6BC0E4E278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72221B29-6525-403E-88FA-52AEE2A84E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="6" activeTab="12" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cliente" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Recordatorio" sheetId="16" r:id="rId12"/>
     <sheet name="Horario " sheetId="15" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="121">
   <si>
     <t>column name</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>DATETIME</t>
+  </si>
+  <si>
+    <t>ID Unico para Categoria_Producto</t>
   </si>
 </sst>
 </file>
@@ -579,9 +582,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -619,7 +622,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -725,7 +728,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -867,7 +870,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1366,7 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9757E9D-4934-4EDF-9513-D95364CE2861}">
   <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1768,7 +1771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF61CE-D33A-4256-9734-775E9712A8C7}">
   <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1935,7 +1938,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2055,9 @@
       <c r="F8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
@@ -2287,7 +2292,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2560,6 +2565,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -2780,14 +2793,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
   <ds:schemaRefs>
@@ -2797,6 +2802,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1043450-795A-4F67-81EF-EC255C8E7E32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2813,21 +2835,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Diccionario base de datos/Base de DATOS.xlsx
+++ b/Diccionario base de datos/Base de DATOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIDEL-SMOKE\Documents\GitHub\Master-Barber\Diccionario base de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Documents\GitHub\Master-Barber\Diccionario base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72221B29-6525-403E-88FA-52AEE2A84E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE60FDF-D6BD-4A0F-9189-944E5045DD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cliente" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="122">
   <si>
     <t>column name</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>ID Unico para Categoria_Producto</t>
+  </si>
+  <si>
+    <t>Contraseña del barbero</t>
   </si>
 </sst>
 </file>
@@ -582,9 +585,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -622,7 +625,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -728,7 +731,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -870,7 +873,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -880,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9420D3FF-ED13-41A9-8DE4-2B36600C40CA}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1472,7 +1475,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,7 +1585,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
@@ -1619,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC90BB7-6FDD-4EE2-8E59-B7506C43859A}">
-  <dimension ref="B1:G9"/>
+  <dimension ref="B1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,7 +1719,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
@@ -1757,6 +1760,22 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1771,7 +1790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF61CE-D33A-4256-9734-775E9712A8C7}">
   <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/Diccionario base de datos/Base de DATOS.xlsx
+++ b/Diccionario base de datos/Base de DATOS.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Documents\GitHub\Master-Barber\Diccionario base de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\Diccionario base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE60FDF-D6BD-4A0F-9189-944E5045DD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736F176C-B1E4-49A7-9037-023EAE4F5C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="8" activeTab="9" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cliente" sheetId="1" r:id="rId1"/>
-    <sheet name="Administrador " sheetId="3" r:id="rId2"/>
-    <sheet name="Barbero" sheetId="4" r:id="rId3"/>
-    <sheet name="ReservaTurno" sheetId="5" r:id="rId4"/>
-    <sheet name="Producto" sheetId="7" r:id="rId5"/>
-    <sheet name=" Categoria producto" sheetId="20" r:id="rId6"/>
-    <sheet name="Servicio " sheetId="9" r:id="rId7"/>
-    <sheet name="Tipo servicio " sheetId="13" r:id="rId8"/>
-    <sheet name="Compra" sheetId="6" r:id="rId9"/>
-    <sheet name="CarritoCompras" sheetId="10" r:id="rId10"/>
-    <sheet name="Factura" sheetId="11" r:id="rId11"/>
-    <sheet name="Recordatorio" sheetId="16" r:id="rId12"/>
-    <sheet name="Horario " sheetId="15" r:id="rId13"/>
+    <sheet name="Usuario" sheetId="1" r:id="rId1"/>
+    <sheet name="Rol" sheetId="3" r:id="rId2"/>
+    <sheet name="ReservaTurno" sheetId="5" r:id="rId3"/>
+    <sheet name="Producto" sheetId="7" r:id="rId4"/>
+    <sheet name=" Categoria producto" sheetId="20" r:id="rId5"/>
+    <sheet name="Servicio " sheetId="9" r:id="rId6"/>
+    <sheet name="Tipo servicio " sheetId="13" r:id="rId7"/>
+    <sheet name="Compra" sheetId="6" r:id="rId8"/>
+    <sheet name="CarritoCompras" sheetId="10" r:id="rId9"/>
+    <sheet name="Factura" sheetId="11" r:id="rId10"/>
+    <sheet name="Recordatorio" sheetId="16" r:id="rId11"/>
+    <sheet name="Horario " sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="105">
   <si>
     <t>column name</t>
   </si>
@@ -60,21 +59,12 @@
     <t>INT</t>
   </si>
   <si>
-    <t>TEXT</t>
-  </si>
-  <si>
     <t>VARCHAR</t>
   </si>
   <si>
     <t>Contraseña</t>
   </si>
   <si>
-    <t xml:space="preserve">Administrador </t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -84,78 +74,12 @@
     <t>Telefono</t>
   </si>
   <si>
-    <t xml:space="preserve">ID único del administrador </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre del administrador </t>
-  </si>
-  <si>
-    <t>Correo del administrador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numero de identificacion del adminstrador </t>
-  </si>
-  <si>
-    <t>Numero de telefono del administrasdor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contraseña de ingreso del administrador </t>
-  </si>
-  <si>
-    <t>Numero de identificacion del cliente</t>
-  </si>
-  <si>
-    <t>ID único del cliente</t>
-  </si>
-  <si>
-    <t>Nombre del cliente</t>
-  </si>
-  <si>
-    <t>Correo del cliente</t>
-  </si>
-  <si>
-    <t>Numero de telefono del cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contraseña de ingreso del cliente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbero </t>
-  </si>
-  <si>
     <t>Nombre_usuario</t>
   </si>
   <si>
-    <t>ID_cliente</t>
-  </si>
-  <si>
-    <t>ID_admin</t>
-  </si>
-  <si>
-    <t>ID_barbero</t>
-  </si>
-  <si>
     <t>DataTime</t>
   </si>
   <si>
-    <t xml:space="preserve">ID único del barbero </t>
-  </si>
-  <si>
-    <t>Nombre del barbero</t>
-  </si>
-  <si>
-    <t>Correo del barbero</t>
-  </si>
-  <si>
-    <t>Numero de identificacion del barbero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horario establecido por el barbero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numero de telefono del barbero </t>
-  </si>
-  <si>
     <t>Reserva de turno</t>
   </si>
   <si>
@@ -168,9 +92,6 @@
     <t>Precio</t>
   </si>
   <si>
-    <t xml:space="preserve">ID_barbero </t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -180,12 +101,6 @@
     <t>Fecha y hora para la reseerva del turno</t>
   </si>
   <si>
-    <t>ID unico del barbero para la reserva de turno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID unico del cliente para la reserva de turno </t>
-  </si>
-  <si>
     <t>Compra</t>
   </si>
   <si>
@@ -213,9 +128,6 @@
     <t xml:space="preserve">ID unico del del producto de la compra </t>
   </si>
   <si>
-    <t xml:space="preserve">ID unico del cliente para la compra </t>
-  </si>
-  <si>
     <t>Producto</t>
   </si>
   <si>
@@ -237,12 +149,6 @@
     <t xml:space="preserve">Descripcion del servicio </t>
   </si>
   <si>
-    <t xml:space="preserve">ID unico del barbero que presta el servicio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID unico del cliente que adquiere el servcio </t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
@@ -252,9 +158,6 @@
     <t>Cantidad</t>
   </si>
   <si>
-    <t>ID_CarritoCompras</t>
-  </si>
-  <si>
     <t>ID unico del carrito de compras</t>
   </si>
   <si>
@@ -279,12 +182,6 @@
     <t>ID unico de la compra en la factura</t>
   </si>
   <si>
-    <t>ID unico de el administrador en la factura</t>
-  </si>
-  <si>
-    <t>ID unico del cliente en el carrito de compras</t>
-  </si>
-  <si>
     <t>Aceptar_Turno</t>
   </si>
   <si>
@@ -315,9 +212,6 @@
     <t>Precio del servicio</t>
   </si>
   <si>
-    <t xml:space="preserve">ID_TipoServicio </t>
-  </si>
-  <si>
     <t>ID unico del tipo de servico para la reserva del turno</t>
   </si>
   <si>
@@ -372,27 +266,15 @@
     <t>Categoria del producto</t>
   </si>
   <si>
-    <t xml:space="preserve">ID_Cliente </t>
-  </si>
-  <si>
-    <t>ID unico del cliente</t>
-  </si>
-  <si>
     <t>Fecha_Hora</t>
   </si>
   <si>
     <t>Fecha y hora del horario</t>
   </si>
   <si>
-    <t>ID_Producto</t>
-  </si>
-  <si>
     <t>Categoria Producto</t>
   </si>
   <si>
-    <t>ID_Categoria_Producto</t>
-  </si>
-  <si>
     <t>ID unico de la categoria del producto</t>
   </si>
   <si>
@@ -402,7 +284,73 @@
     <t>ID Unico para Categoria_Producto</t>
   </si>
   <si>
-    <t>Contraseña del barbero</t>
+    <t>ID_usuario</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>ID_rol</t>
+  </si>
+  <si>
+    <t>Nombre_rol</t>
+  </si>
+  <si>
+    <t>Nombre del rol</t>
+  </si>
+  <si>
+    <t>ID único del rol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID unico del usuario </t>
+  </si>
+  <si>
+    <t>ID unico del usuario para la reserva de turno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID unico del usuario para la compra </t>
+  </si>
+  <si>
+    <t>ID unico del usuario en el carrito de compras</t>
+  </si>
+  <si>
+    <t>ID unico de el usuario en la factura</t>
+  </si>
+  <si>
+    <t>ID único del usuario</t>
+  </si>
+  <si>
+    <t>Nombre del usuario</t>
+  </si>
+  <si>
+    <t>Correo del usuario</t>
+  </si>
+  <si>
+    <t>Numero de identificacion del usuario</t>
+  </si>
+  <si>
+    <t>Numero de telefono del usuario</t>
+  </si>
+  <si>
+    <t>Contraseña de ingreso del usuario</t>
+  </si>
+  <si>
+    <t>ID unico del rol del usuario</t>
+  </si>
+  <si>
+    <t>ID_tipo_servicio</t>
+  </si>
+  <si>
+    <t>ID_tipo_servico</t>
+  </si>
+  <si>
+    <t>ID_horario</t>
+  </si>
+  <si>
+    <t>ID_categoria_producto</t>
+  </si>
+  <si>
+    <t>ID_carrito_compras</t>
   </si>
 </sst>
 </file>
@@ -881,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9420D3FF-ED13-41A9-8DE4-2B36600C40CA}">
-  <dimension ref="B1:G9"/>
+  <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +845,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -927,98 +875,114 @@
     </row>
     <row r="4" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>26</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1031,129 +995,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4307875-C86E-46A0-ACA3-04DC98865736}">
-  <dimension ref="B1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="59.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8AB78C-B123-4DE6-A617-CB63C3F105B6}">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1012,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1196,39 +1042,39 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1236,15 +1082,15 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1252,10 +1098,10 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1266,12 +1112,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE36B24-2715-400C-9E85-4730A4D9CC14}">
   <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1130,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1314,23 +1160,23 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1338,15 +1184,15 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1354,10 +1200,10 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1368,12 +1214,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9757E9D-4934-4EDF-9513-D95364CE2861}">
   <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,7 +1232,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1416,39 +1262,39 @@
     </row>
     <row r="4" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1456,11 +1302,9 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>112</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1472,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE346BF-AD48-4DE0-BEB7-DC25D908EC76}">
-  <dimension ref="B1:G9"/>
+  <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,7 +1332,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1518,98 +1362,34 @@
     </row>
     <row r="4" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1621,177 +1401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC90BB7-6FDD-4EE2-8E59-B7506C43859A}">
-  <dimension ref="B1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF61CE-D33A-4256-9734-775E9712A8C7}">
+  <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="55.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF61CE-D33A-4256-9734-775E9712A8C7}">
-  <dimension ref="B1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,7 +1418,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1834,23 +1448,23 @@
     </row>
     <row r="4" spans="2:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1858,15 +1472,15 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1874,47 +1488,47 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
@@ -1922,26 +1536,10 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1952,12 +1550,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C30701A-A241-497A-87AC-90B96D43611C}">
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,7 +1568,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2000,71 +1598,71 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -2072,26 +1670,26 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2102,12 +1700,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2D4616-9B7D-48B5-BA5E-E7ABB003E7B0}">
   <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2120,7 +1718,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2150,34 +1748,34 @@
     </row>
     <row r="4" spans="2:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2188,12 +1786,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FEC9F6-127D-410C-8876-F4857825EC68}">
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,7 +1804,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2236,23 +1834,23 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -2260,15 +1858,15 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -2276,26 +1874,10 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2306,7 +1888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D618474F-CD69-41C9-9ED3-63E77D8623A7}">
   <dimension ref="B2:G8"/>
   <sheetViews>
@@ -2324,7 +1906,7 @@
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -2354,66 +1936,66 @@
     </row>
     <row r="5" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2424,7 +2006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56231A21-352E-4BA6-9095-2CC725DDC383}">
   <dimension ref="B1:G9"/>
   <sheetViews>
@@ -2442,7 +2024,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2472,71 +2054,71 @@
     </row>
     <row r="4" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -2544,15 +2126,15 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
@@ -2560,10 +2142,128 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>58</v>
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4307875-C86E-46A0-ACA3-04DC98865736}">
+  <dimension ref="B1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="59.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2575,23 +2275,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -2812,10 +2495,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1043450-795A-4F67-81EF-EC255C8E7E32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2838,20 +2549,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1043450-795A-4F67-81EF-EC255C8E7E32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Diccionario base de datos/Base de DATOS.xlsx
+++ b/Diccionario base de datos/Base de DATOS.xlsx
@@ -8,23 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\Diccionario base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736F176C-B1E4-49A7-9037-023EAE4F5C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2315842-6F94-4C36-B44D-FAF66E44DC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="8" activeTab="9" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Usuario" sheetId="1" r:id="rId1"/>
+    <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
     <sheet name="Rol" sheetId="3" r:id="rId2"/>
     <sheet name="ReservaTurno" sheetId="5" r:id="rId3"/>
     <sheet name="Producto" sheetId="7" r:id="rId4"/>
     <sheet name=" Categoria producto" sheetId="20" r:id="rId5"/>
-    <sheet name="Servicio " sheetId="9" r:id="rId6"/>
-    <sheet name="Tipo servicio " sheetId="13" r:id="rId7"/>
-    <sheet name="Compra" sheetId="6" r:id="rId8"/>
-    <sheet name="CarritoCompras" sheetId="10" r:id="rId9"/>
-    <sheet name="Factura" sheetId="11" r:id="rId10"/>
-    <sheet name="Recordatorio" sheetId="16" r:id="rId11"/>
-    <sheet name="Horario " sheetId="15" r:id="rId12"/>
+    <sheet name="Tipo Servicio " sheetId="9" r:id="rId6"/>
+    <sheet name="Compra" sheetId="6" r:id="rId7"/>
+    <sheet name="CarritoCompras" sheetId="10" r:id="rId8"/>
+    <sheet name="Factura" sheetId="11" r:id="rId9"/>
+    <sheet name="Recordatorio" sheetId="16" r:id="rId10"/>
+    <sheet name="Horario " sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="104">
   <si>
     <t>column name</t>
   </si>
@@ -131,21 +130,12 @@
     <t>Producto</t>
   </si>
   <si>
-    <t xml:space="preserve">Servicio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID_servicio </t>
-  </si>
-  <si>
     <t>Descripcion</t>
   </si>
   <si>
     <t xml:space="preserve">Precio </t>
   </si>
   <si>
-    <t>ID único del servicio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Descripcion del servicio </t>
   </si>
   <si>
@@ -203,9 +193,6 @@
     <t>ID_TipoServicio</t>
   </si>
   <si>
-    <t xml:space="preserve">ID unico del tipo de servicio </t>
-  </si>
-  <si>
     <t>Nombre del servicio</t>
   </si>
   <si>
@@ -338,12 +325,6 @@
     <t>ID unico del rol del usuario</t>
   </si>
   <si>
-    <t>ID_tipo_servicio</t>
-  </si>
-  <si>
-    <t>ID_tipo_servico</t>
-  </si>
-  <si>
     <t>ID_horario</t>
   </si>
   <si>
@@ -351,6 +332,21 @@
   </si>
   <si>
     <t>ID_carrito_compras</t>
+  </si>
+  <si>
+    <t>Mensaje</t>
+  </si>
+  <si>
+    <t>Mensaje del recordatorio</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_Tiposervicio </t>
+  </si>
+  <si>
+    <t>ID único del tipo de servicio</t>
   </si>
 </sst>
 </file>
@@ -372,7 +368,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,6 +396,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -514,6 +516,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,7 +837,7 @@
   <dimension ref="B1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +850,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -875,7 +880,7 @@
     </row>
     <row r="4" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -886,7 +891,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -902,7 +907,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -918,7 +923,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -934,7 +939,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -950,7 +955,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -966,12 +971,12 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>84</v>
+      <c r="B10" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -982,7 +987,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -995,129 +1000,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8AB78C-B123-4DE6-A617-CB63C3F105B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE36B24-2715-400C-9E85-4730A4D9CC14}">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="61" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE36B24-2715-400C-9E85-4730A4D9CC14}">
-  <dimension ref="B1:G6"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1017,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1138,7 +1025,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1047,7 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1171,28 +1058,28 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1203,7 +1090,23 @@
         <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
         <v>62</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9757E9D-4934-4EDF-9513-D95364CE2861}">
   <dimension ref="B1:G6"/>
   <sheetViews>
@@ -1232,7 +1135,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1262,7 +1165,7 @@
     </row>
     <row r="4" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1273,15 +1176,15 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -1289,12 +1192,12 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1332,7 +1235,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1362,7 +1265,7 @@
     </row>
     <row r="4" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1373,12 +1276,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1389,7 +1292,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1404,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF61CE-D33A-4256-9734-775E9712A8C7}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1367,7 @@
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1475,12 +1378,12 @@
         <v>18</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1496,10 +1399,10 @@
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
@@ -1507,15 +1410,15 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
@@ -1523,12 +1426,12 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
@@ -1539,7 +1442,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1609,12 +1512,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1625,12 +1528,12 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -1641,12 +1544,12 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1662,7 +1565,7 @@
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -1673,12 +1576,12 @@
         <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
@@ -1718,7 +1621,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1748,7 +1651,7 @@
     </row>
     <row r="4" spans="2:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1759,12 +1662,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1775,7 +1678,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1788,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FEC9F6-127D-410C-8876-F4857825EC68}">
-  <dimension ref="B1:G6"/>
+  <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,7 +1707,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1834,7 +1737,7 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1845,41 +1748,74 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>100</v>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>82</v>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
@@ -1889,124 +1825,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D618474F-CD69-41C9-9ED3-63E77D8623A7}">
-  <dimension ref="B2:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56231A21-352E-4BA6-9095-2CC725DDC383}">
   <dimension ref="B1:G9"/>
   <sheetViews>
@@ -2070,7 +1888,7 @@
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -2081,7 +1899,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2129,12 +1947,12 @@
         <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
@@ -2145,7 +1963,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +1974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4307875-C86E-46A0-ACA3-04DC98865736}">
   <dimension ref="B1:G7"/>
   <sheetViews>
@@ -2174,7 +1992,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2204,7 +2022,7 @@
     </row>
     <row r="4" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -2215,7 +2033,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2231,12 +2049,12 @@
         <v>18</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -2247,7 +2065,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2263,7 +2081,125 @@
         <v>18</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8AB78C-B123-4DE6-A617-CB63C3F105B6}">
+  <dimension ref="B1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="61" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>42</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2275,6 +2211,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -2495,38 +2448,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1043450-795A-4F67-81EF-EC255C8E7E32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2549,9 +2474,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1043450-795A-4F67-81EF-EC255C8E7E32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Diccionario base de datos/Base de DATOS.xlsx
+++ b/Diccionario base de datos/Base de DATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\Diccionario base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2315842-6F94-4C36-B44D-FAF66E44DC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C6A810-75DB-4BD3-AB1B-F55998BA4FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="3" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -508,6 +508,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -516,9 +519,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,14 +849,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -975,7 +975,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1016,14 +1016,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1134,14 +1134,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1234,14 +1234,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1307,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF61CE-D33A-4256-9734-775E9712A8C7}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,14 +1320,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1457,7 +1457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C30701A-A241-497A-87AC-90B96D43611C}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1470,14 +1470,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1620,14 +1620,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1694,7 +1694,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,14 +1706,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1841,14 +1841,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1991,14 +1991,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -2109,14 +2109,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -2211,23 +2211,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -2448,10 +2431,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1043450-795A-4F67-81EF-EC255C8E7E32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2474,20 +2485,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1043450-795A-4F67-81EF-EC255C8E7E32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Diccionario base de datos/Base de DATOS.xlsx
+++ b/Diccionario base de datos/Base de DATOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\Diccionario base de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIDEL-SMOKE\Documents\GitHub\Master-Barber\Diccionario base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2315842-6F94-4C36-B44D-FAF66E44DC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A578C4-9375-42AE-8000-53DE02CE1DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="107">
   <si>
     <t>column name</t>
   </si>
@@ -347,6 +347,15 @@
   </si>
   <si>
     <t>ID único del tipo de servicio</t>
+  </si>
+  <si>
+    <t>Total_Pagar</t>
+  </si>
+  <si>
+    <t>Descripcion Articulo</t>
+  </si>
+  <si>
+    <t>Total Compra</t>
   </si>
 </sst>
 </file>
@@ -508,6 +517,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -516,9 +528,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,9 +547,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -578,7 +587,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -684,7 +693,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -826,7 +835,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -836,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9420D3FF-ED13-41A9-8DE4-2B36600C40CA}">
   <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -849,14 +858,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -975,7 +984,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1016,14 +1025,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1134,14 +1143,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1234,14 +1243,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1307,7 +1316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF61CE-D33A-4256-9734-775E9712A8C7}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1320,14 +1329,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1470,14 +1479,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1620,14 +1629,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1706,14 +1715,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1828,7 +1837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56231A21-352E-4BA6-9095-2CC725DDC383}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1841,14 +1850,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1991,14 +2000,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -2094,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8AB78C-B123-4DE6-A617-CB63C3F105B6}">
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,14 +2118,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -2171,34 +2180,62 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+    <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2211,23 +2248,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -2448,10 +2468,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1043450-795A-4F67-81EF-EC255C8E7E32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2474,20 +2522,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1043450-795A-4F67-81EF-EC255C8E7E32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>